--- a/����������.xlsx
+++ b/����������.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="872">
   <si>
     <t>命令名称</t>
   </si>
@@ -83,9 +83,6 @@
     <t>d.barscale</t>
   </si>
   <si>
-    <t>Displays a barscale on the graphics monitor.</t>
-  </si>
-  <si>
     <t>d.colorlist</t>
   </si>
   <si>
@@ -107,21 +104,12 @@
     <t>d.erase</t>
   </si>
   <si>
-    <t>Erases the contents of the active graphics display frame with user defined color.</t>
-  </si>
-  <si>
     <t>d.font</t>
   </si>
   <si>
-    <t>Selects the font in which text will be displayed on the user's graphics monitor.</t>
-  </si>
-  <si>
     <t>d.fontlist</t>
   </si>
   <si>
-    <t>Lists the available fonts.</t>
-  </si>
-  <si>
     <t>d.geodesic</t>
   </si>
   <si>
@@ -143,15 +131,9 @@
     <t>d.his</t>
   </si>
   <si>
-    <t>Displays the result obtained by combining hue, intensity, and saturation (his) values from user-specified input raster map layers.</t>
-  </si>
-  <si>
     <t>d.histogram</t>
   </si>
   <si>
-    <t>Displays a histogram in the form of a pie or bar chart for a user-specified raster map.</t>
-  </si>
-  <si>
     <t>d.info</t>
   </si>
   <si>
@@ -161,15 +143,9 @@
     <t>d.labels</t>
   </si>
   <si>
-    <t>Displays text labels (created with v.label) to the active frame on the graphics monitor.</t>
-  </si>
-  <si>
     <t>d.legend</t>
   </si>
   <si>
-    <t>Displays a legend for a raster map in the active frame of the graphics monitor.</t>
-  </si>
-  <si>
     <t>d.linegraph</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>d.mon</t>
   </si>
   <si>
-    <t>Controls graphics display monitors which can be controlled from the command line.</t>
-  </si>
-  <si>
     <t>d.path</t>
   </si>
   <si>
@@ -215,15 +188,9 @@
     <t>d.rast</t>
   </si>
   <si>
-    <t>Displays user-specified raster map in the active graphics frame.</t>
-  </si>
-  <si>
     <t>d.rast.leg</t>
   </si>
   <si>
-    <t>Displays a raster map and its legend on a graphics window</t>
-  </si>
-  <si>
     <t>d.rast.num</t>
   </si>
   <si>
@@ -251,15 +218,9 @@
     <t>d.shadedmap</t>
   </si>
   <si>
-    <t>Drapes a color raster over a shaded relief map.</t>
-  </si>
-  <si>
     <t>d.text</t>
   </si>
   <si>
-    <t>Draws text in the active display frame on the graphics monitor using the current font.</t>
-  </si>
-  <si>
     <t>d.thematic.area</t>
   </si>
   <si>
@@ -279,9 +240,6 @@
   </si>
   <si>
     <t>d.vect</t>
-  </si>
-  <si>
-    <t>Displays user-specified vector map in the active graphics frame.</t>
   </si>
   <si>
     <t>d.vect.thematic</t>
@@ -570,9 +528,6 @@
     <t>r.colors</t>
   </si>
   <si>
-    <t>Creates/modifies the color table associated with a raster map.</t>
-  </si>
-  <si>
     <t>r.colors.out</t>
   </si>
   <si>
@@ -1195,9 +1150,6 @@
   </si>
   <si>
     <t>r.shaded.relief</t>
-  </si>
-  <si>
-    <t>Creates shaded relief map from an elevation map (DEM).</t>
   </si>
   <si>
     <t>r.sim.sediment</t>
@@ -2820,12 +2772,114 @@
     <t>r.clump</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Displays a barscale on the graphics monitor.
+在图像监视器上显示比例尺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays a legend for a raster map in the active frame of the graphics monitor.
+在图像显示器上交互方式的显示图例？何为图例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>何为图例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(legend)?</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draws text in the active display frame on the graphics monitor using the current font.
+用当前字体在图像监视器上绘制文本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays user-specified raster map in the active graphics frame.
+在活动地图显示框中显示用户指定的栅格地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays user-specified vector map in the active graphics frame.
+在活动地图显示框中显示用户指定的矢量地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays a raster map and its legend on a graphics window
+在图像窗口中显示一个栅格图和它的图例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controls graphics display monitors which can be controlled from the command line.
+从命令行中控制图形显示监视器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists the available fonts.
+列出可用字体</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selects the font in which text will be displayed on the user's graphics monitor.
+显示将要在图形监视器中显示的字体</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays text labels (created with v.label) to the active frame on the graphics monitor.
+在图像监视器中的活动框中显示文本标记(注记)，对矢量数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates/modifies the color table associated with a raster map.
+创建或修改标量图相关的颜色表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erases the contents of the active graphics display frame with user defined color.
+清除活动图形显示框中的内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays the result obtained by combining hue, intensity, and saturation (his) values from user-specified input raster map layers.
+从用户输入的栅格地图层中获取色度，亮度和饱和度并组合并显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays a histogram in the form of a pie or bar chart for a user-specified raster map.
+为用户指定的栅格数据用饼状或条状图显示直方图信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drapes a color raster over a shaded relief map.
+将一个彩色栅格数据覆盖在阴影浮雕地图上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates shaded relief map from an elevation map (DEM).
+从一个高程地图中创建一个有阴影的浮雕地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2877,6 +2931,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2912,7 +2990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2927,6 +3005,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3292,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3302,6 +3390,7 @@
     <col min="2" max="2" width="126.375" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="88.625" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
@@ -3335,300 +3424,303 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
+      <c r="B9" s="11" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="40.5">
       <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B19" s="12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
-      <c r="A16" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1">
-      <c r="A17" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1">
-      <c r="A18" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1">
-      <c r="A19" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1">
-      <c r="A20" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1">
-      <c r="A21" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1">
-      <c r="A22" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1">
-      <c r="A23" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1">
-      <c r="A24" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1">
-      <c r="A25" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1">
-      <c r="A26" s="8" t="s">
+      <c r="B31" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1">
-      <c r="A27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1">
-      <c r="A29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1">
-      <c r="A31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1">
-      <c r="A32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>67</v>
+      <c r="B32" s="9" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3636,218 +3728,218 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1">
       <c r="A50" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1">
       <c r="A52" s="8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1">
       <c r="A55" s="8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1">
       <c r="A57" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1">
       <c r="A58" s="8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1">
       <c r="A59" s="8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1">
       <c r="A60" s="8" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1">
       <c r="A61" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1">
       <c r="A62" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1">
       <c r="A63" s="8" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1">
       <c r="A64" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1">
       <c r="A65" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1">
       <c r="A66" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1">
       <c r="A67" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3860,10 +3952,10 @@
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3871,1277 +3963,1277 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27">
       <c r="A82" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="8" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="8" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="8" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="8" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="8" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="8" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="8" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="8" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="8" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="8" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="8" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="8" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="8" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="8" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="8" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="8" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="8" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="8" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="8" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="8" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="8" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="8" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="8" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="8" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="8" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="8" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="8" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="8" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="8" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="8" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="8" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="8" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="27">
       <c r="A187" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>367</v>
+        <v>351</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="8" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="8" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="8" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="8" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="8" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="8" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="8" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="8" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="8" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="8" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="8" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="8" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="8" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="8" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="8" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="8" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="8" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="8" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="8" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="1" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15">
       <c r="A232" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5149,162 +5241,162 @@
     </row>
     <row r="233" spans="1:5" s="1" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="1" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="1" customFormat="1">
       <c r="A235" s="8" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="1" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="1" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="1" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="1" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="1" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="1" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="1" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="1" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="1" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="1" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="1" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="1" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="1" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="1" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="1" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="1" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15">
       <c r="A254" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5312,346 +5404,346 @@
     </row>
     <row r="255" spans="1:5" s="1" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="1" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1">
       <c r="A271" s="8" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1">
       <c r="A274" s="8" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1">
       <c r="A275" s="8" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1">
       <c r="A276" s="8" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1">
       <c r="A283" s="8" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="284" spans="1:2" s="1" customFormat="1">
       <c r="A284" s="8" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1">
       <c r="A285" s="8" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1">
       <c r="A286" s="8" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1">
       <c r="A287" s="8" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1">
       <c r="A288" s="8" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="1" customFormat="1">
       <c r="A289" s="8" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="1" customFormat="1">
       <c r="A290" s="8" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="1" customFormat="1">
       <c r="A291" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="1" customFormat="1">
       <c r="A292" s="8" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="1" customFormat="1">
       <c r="A293" s="8" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="1" customFormat="1">
       <c r="A294" s="8" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="1" customFormat="1">
       <c r="A295" s="8" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="1" customFormat="1">
       <c r="A296" s="8" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15">
       <c r="A299" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -5659,973 +5751,973 @@
     </row>
     <row r="300" spans="1:5" s="1" customFormat="1">
       <c r="A300" s="8" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="1" customFormat="1">
       <c r="A301" s="8" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="1" customFormat="1">
       <c r="A302" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="1" customFormat="1">
       <c r="A303" s="8" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="1" customFormat="1">
       <c r="A304" s="8" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:2" s="1" customFormat="1">
       <c r="A305" s="8" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="306" spans="1:2" s="1" customFormat="1">
       <c r="A306" s="8" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="307" spans="1:2" s="1" customFormat="1">
       <c r="A307" s="8" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:2" s="1" customFormat="1">
       <c r="A308" s="8" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="309" spans="1:2" s="1" customFormat="1">
       <c r="A309" s="8" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="310" spans="1:2" s="1" customFormat="1">
       <c r="A310" s="8" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="311" spans="1:2" s="1" customFormat="1">
       <c r="A311" s="8" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312" spans="1:2" s="1" customFormat="1">
       <c r="A312" s="8" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="313" spans="1:2" s="1" customFormat="1">
       <c r="A313" s="8" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="314" spans="1:2" s="1" customFormat="1">
       <c r="A314" s="8" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="315" spans="1:2" s="1" customFormat="1">
       <c r="A315" s="8" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="1" customFormat="1">
       <c r="A316" s="8" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="317" spans="1:2" s="1" customFormat="1">
       <c r="A317" s="8" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="318" spans="1:2" s="1" customFormat="1">
       <c r="A318" s="8" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="319" spans="1:2" s="1" customFormat="1">
       <c r="A319" s="8" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="320" spans="1:2" s="1" customFormat="1">
       <c r="A320" s="8" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="1" customFormat="1">
       <c r="A321" s="8" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="1" customFormat="1">
       <c r="A322" s="8" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="1" customFormat="1">
       <c r="A323" s="8" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="1" customFormat="1">
       <c r="A324" s="8" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="1" customFormat="1">
       <c r="A325" s="8" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="1" customFormat="1">
       <c r="A326" s="8" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="1" customFormat="1">
       <c r="A327" s="8" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="1" customFormat="1">
       <c r="A328" s="8" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="1" customFormat="1">
       <c r="A329" s="8" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="1" customFormat="1">
       <c r="A330" s="8" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="1" customFormat="1">
       <c r="A331" s="8" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="1" customFormat="1">
       <c r="A332" s="8" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="1" customFormat="1">
       <c r="A333" s="8" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="1" customFormat="1">
       <c r="A334" s="8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="1" customFormat="1">
       <c r="A335" s="8" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="1" customFormat="1">
       <c r="A336" s="8" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:2" s="1" customFormat="1">
       <c r="A337" s="8" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="338" spans="1:2" s="1" customFormat="1">
       <c r="A338" s="8" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="1" customFormat="1">
       <c r="A339" s="8" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="340" spans="1:2" s="1" customFormat="1">
       <c r="A340" s="8" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="341" spans="1:2" s="1" customFormat="1">
       <c r="A341" s="8" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="342" spans="1:2" s="1" customFormat="1">
       <c r="A342" s="8" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="343" spans="1:2" s="1" customFormat="1">
       <c r="A343" s="8" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="344" spans="1:2" s="1" customFormat="1">
       <c r="A344" s="8" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="345" spans="1:2" s="1" customFormat="1">
       <c r="A345" s="8" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="346" spans="1:2" s="1" customFormat="1">
       <c r="A346" s="8" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="1" customFormat="1">
       <c r="A347" s="8" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="348" spans="1:2" s="1" customFormat="1">
       <c r="A348" s="8" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="349" spans="1:2" s="1" customFormat="1">
       <c r="A349" s="8" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="350" spans="1:2" s="1" customFormat="1">
       <c r="A350" s="8" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="351" spans="1:2" s="1" customFormat="1">
       <c r="A351" s="8" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="352" spans="1:2" s="1" customFormat="1">
       <c r="A352" s="8" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="353" spans="1:2" s="1" customFormat="1">
       <c r="A353" s="8" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="354" spans="1:2" s="1" customFormat="1">
       <c r="A354" s="8" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="355" spans="1:2" s="1" customFormat="1">
       <c r="A355" s="8" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="356" spans="1:2" s="1" customFormat="1">
       <c r="A356" s="8" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="357" spans="1:2" s="1" customFormat="1">
       <c r="A357" s="8" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="358" spans="1:2" s="1" customFormat="1">
       <c r="A358" s="8" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="359" spans="1:2" s="1" customFormat="1">
       <c r="A359" s="8" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="360" spans="1:2" s="1" customFormat="1">
       <c r="A360" s="8" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="361" spans="1:2" s="1" customFormat="1">
       <c r="A361" s="8" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="362" spans="1:2" s="1" customFormat="1">
       <c r="A362" s="8" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="363" spans="1:2" s="1" customFormat="1">
       <c r="A363" s="8" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="364" spans="1:2" s="1" customFormat="1">
       <c r="A364" s="8" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="365" spans="1:2" s="1" customFormat="1">
       <c r="A365" s="8" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="366" spans="1:2" s="1" customFormat="1">
       <c r="A366" s="8" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="367" spans="1:2" s="1" customFormat="1">
       <c r="A367" s="8" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="368" spans="1:2" s="1" customFormat="1">
       <c r="A368" s="8" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="369" spans="1:2" s="1" customFormat="1">
       <c r="A369" s="8" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="370" spans="1:2" s="1" customFormat="1">
       <c r="A370" s="8" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="371" spans="1:2" s="1" customFormat="1">
       <c r="A371" s="8" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="1" customFormat="1">
       <c r="A372" s="8" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="373" spans="1:2" s="1" customFormat="1">
       <c r="A373" s="8" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="374" spans="1:2" s="1" customFormat="1">
       <c r="A374" s="8" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="375" spans="1:2" s="1" customFormat="1">
       <c r="A375" s="8" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="1" customFormat="1">
       <c r="A376" s="8" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="377" spans="1:2" s="1" customFormat="1">
       <c r="A377" s="8" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="378" spans="1:2" s="1" customFormat="1">
       <c r="A378" s="8" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="379" spans="1:2" s="1" customFormat="1">
       <c r="A379" s="8" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="1" customFormat="1">
       <c r="A380" s="8" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="381" spans="1:2" s="1" customFormat="1">
       <c r="A381" s="8" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="382" spans="1:2" s="1" customFormat="1">
       <c r="A382" s="8" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="383" spans="1:2" s="1" customFormat="1">
       <c r="A383" s="8" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="1" customFormat="1">
       <c r="A384" s="8" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="385" spans="1:2" s="1" customFormat="1">
       <c r="A385" s="8" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="1" customFormat="1">
       <c r="A386" s="8" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="1" customFormat="1">
       <c r="A387" s="8" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="1" customFormat="1">
       <c r="A388" s="8" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="389" spans="1:2" s="1" customFormat="1">
       <c r="A389" s="8" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="390" spans="1:2" s="1" customFormat="1">
       <c r="A390" s="8" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="1" customFormat="1">
       <c r="A391" s="8" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="1" customFormat="1">
       <c r="A392" s="8" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="1" customFormat="1">
       <c r="A393" s="8" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="1" customFormat="1">
       <c r="A394" s="8" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="395" spans="1:2" s="1" customFormat="1">
       <c r="A395" s="8" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="396" spans="1:2" s="1" customFormat="1">
       <c r="A396" s="8" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="397" spans="1:2" s="1" customFormat="1">
       <c r="A397" s="8" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="398" spans="1:2" s="1" customFormat="1">
       <c r="A398" s="8" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="399" spans="1:2" s="1" customFormat="1">
       <c r="A399" s="8" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="400" spans="1:2" s="1" customFormat="1">
       <c r="A400" s="8" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="1" customFormat="1">
       <c r="A401" s="8" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="1" customFormat="1">
       <c r="A402" s="8" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="403" spans="1:2" s="1" customFormat="1">
       <c r="A403" s="8" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="404" spans="1:2" s="1" customFormat="1">
       <c r="A404" s="8" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="405" spans="1:2" s="1" customFormat="1">
       <c r="A405" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="406" spans="1:2" s="1" customFormat="1">
       <c r="A406" s="8" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="407" spans="1:2" s="1" customFormat="1">
       <c r="A407" s="8" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="408" spans="1:2" s="1" customFormat="1">
       <c r="A408" s="8" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="409" spans="1:2" s="1" customFormat="1">
       <c r="A409" s="8" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="410" spans="1:2" s="1" customFormat="1">
       <c r="A410" s="8" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="411" spans="1:2" s="1" customFormat="1">
       <c r="A411" s="8" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="1" customFormat="1">
       <c r="A412" s="8" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="413" spans="1:2" s="1" customFormat="1">
       <c r="A413" s="8" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="414" spans="1:2" s="1" customFormat="1">
       <c r="A414" s="8" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="415" spans="1:2" s="1" customFormat="1">
       <c r="A415" s="8" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="1" customFormat="1">
       <c r="A416" s="8" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="417" spans="1:5" s="1" customFormat="1">
       <c r="A417" s="8" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="418" spans="1:5" s="1" customFormat="1">
       <c r="A418" s="8" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="419" spans="1:5" s="1" customFormat="1">
       <c r="A419" s="8" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15">
       <c r="A422" s="3" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -6633,146 +6725,146 @@
     </row>
     <row r="423" spans="1:5" s="1" customFormat="1">
       <c r="A423" s="8" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="424" spans="1:5" s="1" customFormat="1">
       <c r="A424" s="8" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="425" spans="1:5" s="1" customFormat="1">
       <c r="A425" s="8" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="426" spans="1:5" s="1" customFormat="1">
       <c r="A426" s="8" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="427" spans="1:5" s="1" customFormat="1">
       <c r="A427" s="8" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="428" spans="1:5" s="1" customFormat="1">
       <c r="A428" s="8" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="429" spans="1:5" s="1" customFormat="1">
       <c r="A429" s="8" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
     </row>
     <row r="430" spans="1:5" s="1" customFormat="1">
       <c r="A430" s="8" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1">
       <c r="A431" s="8" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="432" spans="1:5" s="1" customFormat="1">
       <c r="A432" s="8" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="433" spans="1:5" s="1" customFormat="1">
       <c r="A433" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="434" spans="1:5" s="1" customFormat="1">
       <c r="A434" s="8" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="435" spans="1:5" s="1" customFormat="1">
       <c r="A435" s="8" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="436" spans="1:5" s="1" customFormat="1">
       <c r="A436" s="8" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="437" spans="1:5" s="1" customFormat="1">
       <c r="A437" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="438" spans="1:5" s="1" customFormat="1">
       <c r="A438" s="8" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="439" spans="1:5" s="1" customFormat="1">
       <c r="A439" s="8" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15">
       <c r="A442" s="3" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -6780,50 +6872,50 @@
     </row>
     <row r="443" spans="1:5" s="1" customFormat="1">
       <c r="A443" s="8" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="444" spans="1:5" s="1" customFormat="1">
       <c r="A444" s="8" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="445" spans="1:5" s="1" customFormat="1">
       <c r="A445" s="8" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="446" spans="1:5" s="1" customFormat="1">
       <c r="A446" s="8" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="447" spans="1:5" s="1" customFormat="1">
       <c r="A447" s="8" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
     </row>
     <row r="448" spans="1:5" s="1" customFormat="1">
       <c r="A448" s="8" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/����������.xlsx
+++ b/����������.xlsx
@@ -98,9 +98,6 @@
     <t>d.correlate</t>
   </si>
   <si>
-    <t>Prints a graph of the correlation between raster maps (in pairs).</t>
-  </si>
-  <si>
     <t>d.erase</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>d.grid</t>
-  </si>
-  <si>
-    <t>Overlays a user-specified grid in the active display frame on the graphics monitor.</t>
   </si>
   <si>
     <t>d.his</t>
@@ -295,9 +289,6 @@
     <t>g.copy</t>
   </si>
   <si>
-    <t>Copies available data files in the current mapset search path to the user's current mapset.</t>
-  </si>
-  <si>
     <t>g.dirseps</t>
   </si>
   <si>
@@ -343,13 +334,7 @@
     <t>g.list</t>
   </si>
   <si>
-    <t>Lists available GRASS data base files of the user-specified data type.</t>
-  </si>
-  <si>
     <t>g.manual</t>
-  </si>
-  <si>
-    <t>Display the HTML manual pages of GRASS modules</t>
   </si>
   <si>
     <t>g.mapset</t>
@@ -1854,9 +1839,6 @@
     <t>Creates a buffer around vector features of given type.</t>
   </si>
   <si>
-    <t>v.build.all</t>
-  </si>
-  <si>
     <t>Rebuilds topology on all vector maps in the current mapset.</t>
   </si>
   <si>
@@ -1911,13 +1893,7 @@
     <t>v.convert.all</t>
   </si>
   <si>
-    <t>Converts all older versions of GRASS vector maps in current mapset to current format.</t>
-  </si>
-  <si>
     <t>v.convert</t>
-  </si>
-  <si>
-    <t>Imports older versions of GRASS vector maps.</t>
   </si>
   <si>
     <t>v.db.addcolumn</t>
@@ -2872,6 +2848,41 @@
   <si>
     <t>Creates shaded relief map from an elevation map (DEM).
 从一个高程地图中创建一个有阴影的浮雕地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.build.all</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copies available data files in the current mapset search path to the user's current mapset.
+从当前地图集搜索路径中拷贝可用的数据到当前地图集中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imports older versions of GRASS vector maps.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Converts all older versions of GRASS vector maps in current mapset to current format.
+将当前地图集中的所有老版本的GRASS矢量地图转换为当前格式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists available GRASS data base files of the user-specified data type.
+列出用户指定数据类型的可用数据集文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display the HTML manual pages of GRASS modules</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlays a user-specified grid in the active display frame on the graphics monitor.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prints a graph of the correlation between raster maps (in pairs).</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2990,7 +3001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3015,6 +3026,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3380,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3429,7 +3443,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -3453,274 +3467,274 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="40.5">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A16" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A17" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A36" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3728,218 +3742,218 @@
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1">
       <c r="A43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="27">
+      <c r="A44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1">
-      <c r="A44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>73</v>
+      <c r="B44" s="11" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1">
       <c r="A50" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="1" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A52" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>91</v>
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1">
       <c r="A55" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1">
       <c r="A57" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1">
       <c r="A58" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1">
       <c r="A59" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1">
       <c r="A60" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1">
       <c r="A61" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1">
       <c r="A62" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1">
       <c r="A63" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1">
       <c r="A64" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1">
       <c r="A65" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1">
       <c r="A66" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1">
       <c r="A67" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3952,10 +3966,10 @@
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3963,1277 +3977,1277 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27">
       <c r="A82" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="8" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="27">
       <c r="A187" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="1" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15">
       <c r="A232" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5241,162 +5255,162 @@
     </row>
     <row r="233" spans="1:5" s="1" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="1" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="1" customFormat="1">
       <c r="A235" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="1" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="1" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="1" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="1" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="1" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="1" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="1" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="1" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="1" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="1" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="1" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="1" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="1" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="1" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="1" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="1" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15">
       <c r="A254" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5404,346 +5418,346 @@
     </row>
     <row r="255" spans="1:5" s="1" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="1" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1">
       <c r="A271" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1">
       <c r="A274" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1">
       <c r="A275" s="8" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1">
       <c r="A276" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1">
       <c r="A283" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="284" spans="1:2" s="1" customFormat="1">
       <c r="A284" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1">
       <c r="A285" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1">
       <c r="A286" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1">
       <c r="A287" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1">
       <c r="A288" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="1" customFormat="1">
       <c r="A289" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="1" customFormat="1">
       <c r="A290" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="1" customFormat="1">
       <c r="A291" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="1" customFormat="1">
       <c r="A292" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="1" customFormat="1">
       <c r="A293" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="1" customFormat="1">
       <c r="A294" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="1" customFormat="1">
       <c r="A295" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="1" customFormat="1">
       <c r="A296" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15">
       <c r="A299" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -5751,973 +5765,973 @@
     </row>
     <row r="300" spans="1:5" s="1" customFormat="1">
       <c r="A300" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="1" customFormat="1">
       <c r="A301" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>567</v>
+        <v>864</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="1" customFormat="1">
       <c r="A302" s="8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="1" customFormat="1">
       <c r="A303" s="8" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="1" customFormat="1">
       <c r="A304" s="8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:2" s="1" customFormat="1">
       <c r="A305" s="8" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="306" spans="1:2" s="1" customFormat="1">
       <c r="A306" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:2" s="1" customFormat="1">
       <c r="A307" s="8" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:2" s="1" customFormat="1">
       <c r="A308" s="8" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="309" spans="1:2" s="1" customFormat="1">
       <c r="A309" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" s="1" customFormat="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A310" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>585</v>
+        <v>578</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="311" spans="1:2" s="1" customFormat="1">
       <c r="A311" s="8" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>587</v>
+        <v>866</v>
       </c>
     </row>
     <row r="312" spans="1:2" s="1" customFormat="1">
       <c r="A312" s="8" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:2" s="1" customFormat="1">
       <c r="A313" s="8" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="314" spans="1:2" s="1" customFormat="1">
       <c r="A314" s="8" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="315" spans="1:2" s="1" customFormat="1">
       <c r="A315" s="8" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="1" customFormat="1">
       <c r="A316" s="8" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="317" spans="1:2" s="1" customFormat="1">
       <c r="A317" s="8" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="318" spans="1:2" s="1" customFormat="1">
       <c r="A318" s="8" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="319" spans="1:2" s="1" customFormat="1">
       <c r="A319" s="8" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="320" spans="1:2" s="1" customFormat="1">
       <c r="A320" s="8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="1" customFormat="1">
       <c r="A321" s="8" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="1" customFormat="1">
       <c r="A322" s="8" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="1" customFormat="1">
       <c r="A323" s="8" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="1" customFormat="1">
       <c r="A324" s="8" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="1" customFormat="1">
       <c r="A325" s="8" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="1" customFormat="1">
       <c r="A326" s="8" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="1" customFormat="1">
       <c r="A327" s="8" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="1" customFormat="1">
       <c r="A328" s="8" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="1" customFormat="1">
       <c r="A329" s="8" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="1" customFormat="1">
       <c r="A330" s="8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="1" customFormat="1">
       <c r="A331" s="8" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="1" customFormat="1">
       <c r="A332" s="8" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="1" customFormat="1">
       <c r="A333" s="8" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="1" customFormat="1">
       <c r="A334" s="8" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="1" customFormat="1">
       <c r="A335" s="8" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="1" customFormat="1">
       <c r="A336" s="8" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="337" spans="1:2" s="1" customFormat="1">
       <c r="A337" s="8" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="338" spans="1:2" s="1" customFormat="1">
       <c r="A338" s="8" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="1" customFormat="1">
       <c r="A339" s="8" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:2" s="1" customFormat="1">
       <c r="A340" s="8" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="341" spans="1:2" s="1" customFormat="1">
       <c r="A341" s="8" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="342" spans="1:2" s="1" customFormat="1">
       <c r="A342" s="8" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="343" spans="1:2" s="1" customFormat="1">
       <c r="A343" s="8" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="344" spans="1:2" s="1" customFormat="1">
       <c r="A344" s="8" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="345" spans="1:2" s="1" customFormat="1">
       <c r="A345" s="8" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="346" spans="1:2" s="1" customFormat="1">
       <c r="A346" s="8" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="1" customFormat="1">
       <c r="A347" s="8" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="348" spans="1:2" s="1" customFormat="1">
       <c r="A348" s="8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="349" spans="1:2" s="1" customFormat="1">
       <c r="A349" s="8" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="350" spans="1:2" s="1" customFormat="1">
       <c r="A350" s="8" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="351" spans="1:2" s="1" customFormat="1">
       <c r="A351" s="8" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="352" spans="1:2" s="1" customFormat="1">
       <c r="A352" s="8" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="353" spans="1:2" s="1" customFormat="1">
       <c r="A353" s="8" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="354" spans="1:2" s="1" customFormat="1">
       <c r="A354" s="8" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="355" spans="1:2" s="1" customFormat="1">
       <c r="A355" s="8" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="356" spans="1:2" s="1" customFormat="1">
       <c r="A356" s="8" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="357" spans="1:2" s="1" customFormat="1">
       <c r="A357" s="8" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="358" spans="1:2" s="1" customFormat="1">
       <c r="A358" s="8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="359" spans="1:2" s="1" customFormat="1">
       <c r="A359" s="8" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="360" spans="1:2" s="1" customFormat="1">
       <c r="A360" s="8" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="361" spans="1:2" s="1" customFormat="1">
       <c r="A361" s="8" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="362" spans="1:2" s="1" customFormat="1">
       <c r="A362" s="8" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="363" spans="1:2" s="1" customFormat="1">
       <c r="A363" s="8" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="364" spans="1:2" s="1" customFormat="1">
       <c r="A364" s="8" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="365" spans="1:2" s="1" customFormat="1">
       <c r="A365" s="8" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:2" s="1" customFormat="1">
       <c r="A366" s="8" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="367" spans="1:2" s="1" customFormat="1">
       <c r="A367" s="8" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="368" spans="1:2" s="1" customFormat="1">
       <c r="A368" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="369" spans="1:2" s="1" customFormat="1">
       <c r="A369" s="8" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="370" spans="1:2" s="1" customFormat="1">
       <c r="A370" s="8" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="371" spans="1:2" s="1" customFormat="1">
       <c r="A371" s="8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="1" customFormat="1">
       <c r="A372" s="8" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="373" spans="1:2" s="1" customFormat="1">
       <c r="A373" s="8" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="374" spans="1:2" s="1" customFormat="1">
       <c r="A374" s="8" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="375" spans="1:2" s="1" customFormat="1">
       <c r="A375" s="8" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="1" customFormat="1">
       <c r="A376" s="8" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="377" spans="1:2" s="1" customFormat="1">
       <c r="A377" s="8" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="378" spans="1:2" s="1" customFormat="1">
       <c r="A378" s="8" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="379" spans="1:2" s="1" customFormat="1">
       <c r="A379" s="8" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="1" customFormat="1">
       <c r="A380" s="8" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="381" spans="1:2" s="1" customFormat="1">
       <c r="A381" s="8" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="382" spans="1:2" s="1" customFormat="1">
       <c r="A382" s="8" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" spans="1:2" s="1" customFormat="1">
       <c r="A383" s="8" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="1" customFormat="1">
       <c r="A384" s="8" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="385" spans="1:2" s="1" customFormat="1">
       <c r="A385" s="8" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="1" customFormat="1">
       <c r="A386" s="8" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="1" customFormat="1">
       <c r="A387" s="8" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="1" customFormat="1">
       <c r="A388" s="8" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="389" spans="1:2" s="1" customFormat="1">
       <c r="A389" s="8" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="390" spans="1:2" s="1" customFormat="1">
       <c r="A390" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="1" customFormat="1">
       <c r="A391" s="8" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="1" customFormat="1">
       <c r="A392" s="8" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="1" customFormat="1">
       <c r="A393" s="8" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="1" customFormat="1">
       <c r="A394" s="8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="395" spans="1:2" s="1" customFormat="1">
       <c r="A395" s="8" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="396" spans="1:2" s="1" customFormat="1">
       <c r="A396" s="8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="397" spans="1:2" s="1" customFormat="1">
       <c r="A397" s="8" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" spans="1:2" s="1" customFormat="1">
       <c r="A398" s="8" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:2" s="1" customFormat="1">
       <c r="A399" s="8" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:2" s="1" customFormat="1">
       <c r="A400" s="8" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="1" customFormat="1">
       <c r="A401" s="8" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="1" customFormat="1">
       <c r="A402" s="8" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="403" spans="1:2" s="1" customFormat="1">
       <c r="A403" s="8" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="404" spans="1:2" s="1" customFormat="1">
       <c r="A404" s="8" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="405" spans="1:2" s="1" customFormat="1">
       <c r="A405" s="8" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="406" spans="1:2" s="1" customFormat="1">
       <c r="A406" s="8" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="407" spans="1:2" s="1" customFormat="1">
       <c r="A407" s="8" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="408" spans="1:2" s="1" customFormat="1">
       <c r="A408" s="8" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="409" spans="1:2" s="1" customFormat="1">
       <c r="A409" s="8" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="410" spans="1:2" s="1" customFormat="1">
       <c r="A410" s="8" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="411" spans="1:2" s="1" customFormat="1">
       <c r="A411" s="8" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="1" customFormat="1">
       <c r="A412" s="8" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="413" spans="1:2" s="1" customFormat="1">
       <c r="A413" s="8" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="414" spans="1:2" s="1" customFormat="1">
       <c r="A414" s="8" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="415" spans="1:2" s="1" customFormat="1">
       <c r="A415" s="8" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="1" customFormat="1">
       <c r="A416" s="8" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="417" spans="1:5" s="1" customFormat="1">
       <c r="A417" s="8" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="418" spans="1:5" s="1" customFormat="1">
       <c r="A418" s="8" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="419" spans="1:5" s="1" customFormat="1">
       <c r="A419" s="8" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15">
       <c r="A422" s="3" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -6725,146 +6739,146 @@
     </row>
     <row r="423" spans="1:5" s="1" customFormat="1">
       <c r="A423" s="8" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="424" spans="1:5" s="1" customFormat="1">
       <c r="A424" s="8" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="425" spans="1:5" s="1" customFormat="1">
       <c r="A425" s="8" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="426" spans="1:5" s="1" customFormat="1">
       <c r="A426" s="8" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="427" spans="1:5" s="1" customFormat="1">
       <c r="A427" s="8" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="428" spans="1:5" s="1" customFormat="1">
       <c r="A428" s="8" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="429" spans="1:5" s="1" customFormat="1">
       <c r="A429" s="8" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="430" spans="1:5" s="1" customFormat="1">
       <c r="A430" s="8" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1">
       <c r="A431" s="8" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="432" spans="1:5" s="1" customFormat="1">
       <c r="A432" s="8" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="433" spans="1:5" s="1" customFormat="1">
       <c r="A433" s="8" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="434" spans="1:5" s="1" customFormat="1">
       <c r="A434" s="8" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="435" spans="1:5" s="1" customFormat="1">
       <c r="A435" s="8" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="436" spans="1:5" s="1" customFormat="1">
       <c r="A436" s="8" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="437" spans="1:5" s="1" customFormat="1">
       <c r="A437" s="8" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="438" spans="1:5" s="1" customFormat="1">
       <c r="A438" s="8" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="439" spans="1:5" s="1" customFormat="1">
       <c r="A439" s="8" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15">
       <c r="A442" s="3" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -6872,50 +6886,50 @@
     </row>
     <row r="443" spans="1:5" s="1" customFormat="1">
       <c r="A443" s="8" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="444" spans="1:5" s="1" customFormat="1">
       <c r="A444" s="8" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="445" spans="1:5" s="1" customFormat="1">
       <c r="A445" s="8" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="446" spans="1:5" s="1" customFormat="1">
       <c r="A446" s="8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="447" spans="1:5" s="1" customFormat="1">
       <c r="A447" s="8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="448" spans="1:5" s="1" customFormat="1">
       <c r="A448" s="8" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/����������.xlsx
+++ b/����������.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="876">
   <si>
     <t>命令名称</t>
   </si>
@@ -86,15 +86,9 @@
     <t>d.colorlist</t>
   </si>
   <si>
-    <t>Output a list of all available display colors with a configurable separator (default is comma).</t>
-  </si>
-  <si>
     <t>d.colortable</t>
   </si>
   <si>
-    <t>Displays the color table associated with a raster map layer.</t>
-  </si>
-  <si>
     <t>d.correlate</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>d.graph</t>
   </si>
   <si>
-    <t>Program for generating and displaying simple graphics on the display monitor.</t>
-  </si>
-  <si>
     <t>d.grid</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>d.info</t>
   </si>
   <si>
-    <t>Display information about the active display monitor</t>
-  </si>
-  <si>
     <t>d.labels</t>
   </si>
   <si>
@@ -152,21 +140,12 @@
     <t>d.path</t>
   </si>
   <si>
-    <t>Finds shortest path for selected starting and ending node.</t>
-  </si>
-  <si>
     <t>d.polar</t>
   </si>
   <si>
-    <t>Draws polar diagram of angle map such as aspect or flow directions</t>
-  </si>
-  <si>
     <t>d.profile</t>
   </si>
   <si>
-    <t>Plots profile of a transect.</t>
-  </si>
-  <si>
     <t>d.rast.arrow</t>
   </si>
   <si>
@@ -176,9 +155,6 @@
     <t>d.rast.edit</t>
   </si>
   <si>
-    <t>Edits cell values in a raster map.</t>
-  </si>
-  <si>
     <t>d.rast</t>
   </si>
   <si>
@@ -188,19 +164,10 @@
     <t>d.rast.num</t>
   </si>
   <si>
-    <t>Overlays cell category values on a raster map layer displayed to the graphics monitor.</t>
-  </si>
-  <si>
     <t>d.redraw</t>
   </si>
   <si>
-    <t>Redraws the content of currently selected monitor.</t>
-  </si>
-  <si>
     <t>d.rgb</t>
-  </si>
-  <si>
-    <t>Displays three user-specified raster maps as red, green, and blue overlays in the active graphics frame.</t>
   </si>
   <si>
     <t>d.rhumbline</t>
@@ -277,42 +244,24 @@
     <t>g.access</t>
   </si>
   <si>
-    <t>Controls access to the current mapset for other users on the system.</t>
-  </si>
-  <si>
     <t>g.cairocomp</t>
   </si>
   <si>
-    <t>Overlays multiple X Pixmaps</t>
-  </si>
-  <si>
     <t>g.copy</t>
   </si>
   <si>
     <t>g.dirseps</t>
   </si>
   <si>
-    <t>Internal GRASS utility for converting directory separator characters.</t>
-  </si>
-  <si>
     <t>g.extension</t>
   </si>
   <si>
-    <t>Tool to maintain the extensions in local GRASS installation.</t>
-  </si>
-  <si>
     <t>g.filename</t>
   </si>
   <si>
-    <t>Prints GRASS data base file names.</t>
-  </si>
-  <si>
     <t>g.findetc</t>
   </si>
   <si>
-    <t>Searches for GRASS support files.</t>
-  </si>
-  <si>
     <t>g.findfile</t>
   </si>
   <si>
@@ -322,15 +271,9 @@
     <t>g.gisenv</t>
   </si>
   <si>
-    <t>Outputs and modifies the user's current GRASS variable settings.</t>
-  </si>
-  <si>
     <t>g.gui</t>
   </si>
   <si>
-    <t>Launches a GRASS graphical user interface (GUI) session.</t>
-  </si>
-  <si>
     <t>g.list</t>
   </si>
   <si>
@@ -340,21 +283,12 @@
     <t>g.mapset</t>
   </si>
   <si>
-    <t>Changes/reports current mapset.</t>
-  </si>
-  <si>
     <t>g.mapsets</t>
   </si>
   <si>
-    <t>Modifies the user's current mapset search path.</t>
-  </si>
-  <si>
     <t>g.message</t>
   </si>
   <si>
-    <t>Prints a message, warning, progress info, or fatal error in the GRASS way.</t>
-  </si>
-  <si>
     <t>g.mkfontcap</t>
   </si>
   <si>
@@ -364,15 +298,9 @@
     <t>g.mlist</t>
   </si>
   <si>
-    <t>Lists available GRASS data base files of the user-specified data type optionally using the search pattern.</t>
-  </si>
-  <si>
     <t>g.mremove</t>
   </si>
   <si>
-    <t>Removes data base element files from the user's current mapset using regular expressions.</t>
-  </si>
-  <si>
     <t>g.parser</t>
   </si>
   <si>
@@ -394,9 +322,6 @@
     <t>g.proj</t>
   </si>
   <si>
-    <t>Prints and manipulates GRASS projection information files (in various co-ordinate system descriptions).</t>
-  </si>
-  <si>
     <t>g.region</t>
   </si>
   <si>
@@ -406,25 +331,13 @@
     <t>g.remove</t>
   </si>
   <si>
-    <t>Removes data base element files from the user's current mapset.</t>
-  </si>
-  <si>
     <t>g.rename</t>
   </si>
   <si>
-    <t>Renames data base element files in the user's current mapset.</t>
-  </si>
-  <si>
     <t>g.tempfile</t>
   </si>
   <si>
-    <t>Creates a temporary file and prints it's file name.</t>
-  </si>
-  <si>
     <t>g.version</t>
-  </si>
-  <si>
-    <t>Displays version and copyright information.</t>
   </si>
   <si>
     <t>r.*</t>
@@ -2860,7 +2773,210 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Imports older versions of GRASS vector maps.</t>
+    <t>Lists available GRASS data base files of the user-specified data type.
+列出用户指定数据类型的可用数据集文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prints a graph of the correlation between raster maps (in pairs).
+打印两幅栅格图的相关性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>correlation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output a list of all available display colors with a configurable separator (default is comma).
+输出可用显示的颜色列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays the color table associated with a raster map layer.
+显示一个栅格层相关的颜色表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program for generating and displaying simple graphics on the display monitor.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlays a user-specified grid in the active display frame on the graphics monitor.
+在图形监视器的活动显示框中覆盖用户指定的格网</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display information about the active display monitor
+显示活动监视器的信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finds shortest path for selected starting and ending node.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draws polar diagram of angle map such as aspect or flow directions
+为角度图(如方位和流方向)绘制两极图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">polar diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> angle map </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plots profile of a transect.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edits cell values in a raster map.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlays cell category values on a raster map layer displayed to the graphics monitor.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraws the content of currently selected monitor.
+重绘制选择的监视器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays three user-specified raster maps as red, green, and blue overlays in the active graphics frame.
+在活动窗口中按红、绿和蓝三个波段显示用户指定的栅格地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlays multiple X Pixmaps</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controls access to the current mapset for other users on the system.
+控制其他用户对当前地图集的访问权限(只在Linux下有效)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internal GRASS utility for converting directory separator characters.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool to maintain the extensions in local GRASS installation.
+管理GRASS扩展模块的安装</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prints GRASS data base file names.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outputs and modifies the user's current GRASS variable settings.
+输出和修改用户当前的环境变量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launches a GRASS graphical user interface (GUI) session.
+打开GRASS用户界面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display the HTML manual pages of GRASS modules
+已HTML或MAN格式显示GRASS模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changes/reports current mapset.
+改变或报告当前地图集</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifies the user's current mapset search path.
+修改用户当前地图集的搜索路径</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prints a message, warning, progress info, or fatal error in the GRASS way.
+以GRASS的方式打印一个消息，警告，处理信息或最终的错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists available GRASS data base files of the user-specified data type optionally using the search pattern.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removes data base element files from the user's current mapset using regular expressions.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removes data base element files from the user's current mapset.
+从用户当前数据集中删除文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renames data base element files in the user's current mapset.
+命名用户当前数据集中的文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates a temporary file and prints it's file name.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays version and copyright information.
+显示版本和版权信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prints and manipulates GRASS projection information files (in various co-ordinate system descriptions).
+答应和管理GRASS投影信息文件</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2869,20 +2985,136 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Lists available GRASS data base files of the user-specified data type.
-列出用户指定数据类型的可用数据集文件</t>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下有问题，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下不太清楚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Searches for GRASS support files.
+查找GRASS支持的文件</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Display the HTML manual pages of GRASS modules</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overlays a user-specified grid in the active display frame on the graphics monitor.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prints a graph of the correlation between raster maps (in pairs).</t>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下有问题，不知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怎样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Imports older versions of GRASS vector maps.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3001,7 +3233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3029,6 +3261,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3394,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3443,517 +3678,526 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>871</v>
+      <c r="B6" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>859</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>855</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>870</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="40.5">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>857</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>848</v>
+        <v>819</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>849</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>854</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="28.5">
       <c r="A21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>849</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A26" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>853</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A31" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>862</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1">
+      <c r="A34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1">
+      <c r="A35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1">
-      <c r="A33" s="8" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="15">
+      <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1">
-      <c r="A34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1">
-      <c r="A35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="27">
-      <c r="A36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1">
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A42" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1">
+        <v>55</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="27">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A44" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1">
+        <v>59</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A50" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="1" customFormat="1">
+        <v>64</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A52" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A53" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="1" customFormat="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A54" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="1" customFormat="1">
+        <v>68</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="1" customFormat="1">
+        <v>69</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1">
       <c r="A57" s="8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1">
       <c r="A58" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>96</v>
+        <v>864</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1">
       <c r="A59" s="8" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>865</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1">
       <c r="A60" s="8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1">
       <c r="A61" s="8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1">
       <c r="A62" s="8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A63" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1">
       <c r="A64" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="1" customFormat="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A65" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="1" customFormat="1">
+        <v>84</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A66" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1">
       <c r="A67" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="1" customFormat="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A68" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>116</v>
+        <v>87</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3966,10 +4210,10 @@
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3977,1277 +4221,1277 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27">
       <c r="A82" s="8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>858</v>
+        <v>829</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="8" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="8" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="8" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="8" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="8" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="8" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="8" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="8" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="8" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="8" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="8" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="8" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="8" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="8" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="8" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="8" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="8" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="8" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="8" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="8" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="8" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="8" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="8" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="8" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="8" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="8" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="8" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="8" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="8" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="8" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="8" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="8" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="8" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="8" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="8" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="8" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="8" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="8" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="8" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="8" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="8" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="8" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="8" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="8" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="8" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="8" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="8" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="8" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="8" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="8" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="8" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="8" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="8" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="8" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="8" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="8" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="8" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="27">
       <c r="A187" s="8" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>863</v>
+        <v>834</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="8" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="8" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="8" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="8" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="8" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="8" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="8" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="8" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="8" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="8" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="8" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="8" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="8" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="8" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="8" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="8" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="8" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="8" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="8" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="1" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15">
       <c r="A232" s="3" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5255,162 +5499,162 @@
     </row>
     <row r="233" spans="1:5" s="1" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="1" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="1" customFormat="1">
       <c r="A235" s="8" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="1" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="1" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="1" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="1" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="1" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="1" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="1" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="1" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="1" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="1" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="1" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="1" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="1" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="1" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="1" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="1" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15">
       <c r="A254" s="3" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5418,346 +5662,346 @@
     </row>
     <row r="255" spans="1:5" s="1" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="1" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1">
       <c r="A271" s="8" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1">
       <c r="A274" s="8" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1">
       <c r="A275" s="8" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1">
       <c r="A276" s="8" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1">
       <c r="A283" s="8" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:2" s="1" customFormat="1">
       <c r="A284" s="8" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1">
       <c r="A285" s="8" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1">
       <c r="A286" s="8" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1">
       <c r="A287" s="8" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1">
       <c r="A288" s="8" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="1" customFormat="1">
       <c r="A289" s="8" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="1" customFormat="1">
       <c r="A290" s="8" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="1" customFormat="1">
       <c r="A291" s="8" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="1" customFormat="1">
       <c r="A292" s="8" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="1" customFormat="1">
       <c r="A293" s="8" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="1" customFormat="1">
       <c r="A294" s="8" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="1" customFormat="1">
       <c r="A295" s="8" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="1" customFormat="1">
       <c r="A296" s="8" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15">
       <c r="A299" s="3" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -5765,973 +6009,976 @@
     </row>
     <row r="300" spans="1:5" s="1" customFormat="1">
       <c r="A300" s="8" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="1" customFormat="1">
       <c r="A301" s="8" t="s">
-        <v>864</v>
+        <v>835</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="1" customFormat="1">
       <c r="A302" s="8" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="1" customFormat="1">
       <c r="A303" s="8" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="1" customFormat="1">
       <c r="A304" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="1" customFormat="1">
+      <c r="A305" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="1" customFormat="1">
+      <c r="A306" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="1" customFormat="1">
+      <c r="A307" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="1" customFormat="1">
+      <c r="A308" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="1" customFormat="1">
+      <c r="A309" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A310" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="F310" s="10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="1" customFormat="1">
+      <c r="A311" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="1" customFormat="1">
+      <c r="A312" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="1" customFormat="1">
+      <c r="A313" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="1" customFormat="1">
+      <c r="A314" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="1" customFormat="1">
+      <c r="A315" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="1" customFormat="1">
+      <c r="A316" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="1" customFormat="1">
+      <c r="A317" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="1" customFormat="1">
+      <c r="A318" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="1" customFormat="1">
+      <c r="A319" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B304" s="6" t="s">
+    </row>
+    <row r="320" spans="1:6" s="1" customFormat="1">
+      <c r="A320" s="8" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" s="1" customFormat="1">
-      <c r="A305" s="8" t="s">
+      <c r="B320" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" s="1" customFormat="1">
-      <c r="A306" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" s="1" customFormat="1">
-      <c r="A307" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" s="1" customFormat="1">
-      <c r="A308" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" s="1" customFormat="1">
-      <c r="A309" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A310" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" s="1" customFormat="1">
-      <c r="A311" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" s="1" customFormat="1">
-      <c r="A312" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" s="1" customFormat="1">
-      <c r="A313" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" s="1" customFormat="1">
-      <c r="A314" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" s="1" customFormat="1">
-      <c r="A315" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" s="1" customFormat="1">
-      <c r="A316" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" s="1" customFormat="1">
-      <c r="A317" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" s="1" customFormat="1">
-      <c r="A318" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" s="1" customFormat="1">
-      <c r="A319" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" s="1" customFormat="1">
-      <c r="A320" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="1" customFormat="1">
       <c r="A321" s="8" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="1" customFormat="1">
       <c r="A322" s="8" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="1" customFormat="1">
       <c r="A323" s="8" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="1" customFormat="1">
       <c r="A324" s="8" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="1" customFormat="1">
       <c r="A325" s="8" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="1" customFormat="1">
       <c r="A326" s="8" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="1" customFormat="1">
       <c r="A327" s="8" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="1" customFormat="1">
       <c r="A328" s="8" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="1" customFormat="1">
       <c r="A329" s="8" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="1" customFormat="1">
       <c r="A330" s="8" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="1" customFormat="1">
       <c r="A331" s="8" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="1" customFormat="1">
       <c r="A332" s="8" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="1" customFormat="1">
       <c r="A333" s="8" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="1" customFormat="1">
       <c r="A334" s="8" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="1" customFormat="1">
       <c r="A335" s="8" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="1" customFormat="1">
       <c r="A336" s="8" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
     </row>
     <row r="337" spans="1:2" s="1" customFormat="1">
       <c r="A337" s="8" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
     </row>
     <row r="338" spans="1:2" s="1" customFormat="1">
       <c r="A338" s="8" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
     </row>
     <row r="339" spans="1:2" s="1" customFormat="1">
       <c r="A339" s="8" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
     </row>
     <row r="340" spans="1:2" s="1" customFormat="1">
       <c r="A340" s="8" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
     </row>
     <row r="341" spans="1:2" s="1" customFormat="1">
       <c r="A341" s="8" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
     </row>
     <row r="342" spans="1:2" s="1" customFormat="1">
       <c r="A342" s="8" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="1:2" s="1" customFormat="1">
       <c r="A343" s="8" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
     </row>
     <row r="344" spans="1:2" s="1" customFormat="1">
       <c r="A344" s="8" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
     </row>
     <row r="345" spans="1:2" s="1" customFormat="1">
       <c r="A345" s="8" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
     </row>
     <row r="346" spans="1:2" s="1" customFormat="1">
       <c r="A346" s="8" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
     </row>
     <row r="347" spans="1:2" s="1" customFormat="1">
       <c r="A347" s="8" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
     </row>
     <row r="348" spans="1:2" s="1" customFormat="1">
       <c r="A348" s="8" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
     </row>
     <row r="349" spans="1:2" s="1" customFormat="1">
       <c r="A349" s="8" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
     </row>
     <row r="350" spans="1:2" s="1" customFormat="1">
       <c r="A350" s="8" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
     </row>
     <row r="351" spans="1:2" s="1" customFormat="1">
       <c r="A351" s="8" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="352" spans="1:2" s="1" customFormat="1">
       <c r="A352" s="8" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
     </row>
     <row r="353" spans="1:2" s="1" customFormat="1">
       <c r="A353" s="8" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
     </row>
     <row r="354" spans="1:2" s="1" customFormat="1">
       <c r="A354" s="8" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
     </row>
     <row r="355" spans="1:2" s="1" customFormat="1">
       <c r="A355" s="8" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
     </row>
     <row r="356" spans="1:2" s="1" customFormat="1">
       <c r="A356" s="8" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
     </row>
     <row r="357" spans="1:2" s="1" customFormat="1">
       <c r="A357" s="8" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:2" s="1" customFormat="1">
       <c r="A358" s="8" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
     </row>
     <row r="359" spans="1:2" s="1" customFormat="1">
       <c r="A359" s="8" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" spans="1:2" s="1" customFormat="1">
       <c r="A360" s="8" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
     </row>
     <row r="361" spans="1:2" s="1" customFormat="1">
       <c r="A361" s="8" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
     </row>
     <row r="362" spans="1:2" s="1" customFormat="1">
       <c r="A362" s="8" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
     </row>
     <row r="363" spans="1:2" s="1" customFormat="1">
       <c r="A363" s="8" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
     </row>
     <row r="364" spans="1:2" s="1" customFormat="1">
       <c r="A364" s="8" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
     </row>
     <row r="365" spans="1:2" s="1" customFormat="1">
       <c r="A365" s="8" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:2" s="1" customFormat="1">
       <c r="A366" s="8" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
     </row>
     <row r="367" spans="1:2" s="1" customFormat="1">
       <c r="A367" s="8" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
     </row>
     <row r="368" spans="1:2" s="1" customFormat="1">
       <c r="A368" s="8" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
     </row>
     <row r="369" spans="1:2" s="1" customFormat="1">
       <c r="A369" s="8" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
     </row>
     <row r="370" spans="1:2" s="1" customFormat="1">
       <c r="A370" s="8" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
     </row>
     <row r="371" spans="1:2" s="1" customFormat="1">
       <c r="A371" s="8" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="1" customFormat="1">
       <c r="A372" s="8" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
     </row>
     <row r="373" spans="1:2" s="1" customFormat="1">
       <c r="A373" s="8" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
     </row>
     <row r="374" spans="1:2" s="1" customFormat="1">
       <c r="A374" s="8" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
     </row>
     <row r="375" spans="1:2" s="1" customFormat="1">
       <c r="A375" s="8" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="1" customFormat="1">
       <c r="A376" s="8" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
     </row>
     <row r="377" spans="1:2" s="1" customFormat="1">
       <c r="A377" s="8" t="s">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>712</v>
+        <v>683</v>
       </c>
     </row>
     <row r="378" spans="1:2" s="1" customFormat="1">
       <c r="A378" s="8" t="s">
-        <v>713</v>
+        <v>684</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
     </row>
     <row r="379" spans="1:2" s="1" customFormat="1">
       <c r="A379" s="8" t="s">
-        <v>715</v>
+        <v>686</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>716</v>
+        <v>687</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="1" customFormat="1">
       <c r="A380" s="8" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
     </row>
     <row r="381" spans="1:2" s="1" customFormat="1">
       <c r="A381" s="8" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
     </row>
     <row r="382" spans="1:2" s="1" customFormat="1">
       <c r="A382" s="8" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
     </row>
     <row r="383" spans="1:2" s="1" customFormat="1">
       <c r="A383" s="8" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="1" customFormat="1">
       <c r="A384" s="8" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
     <row r="385" spans="1:2" s="1" customFormat="1">
       <c r="A385" s="8" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="1" customFormat="1">
       <c r="A386" s="8" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="1" customFormat="1">
       <c r="A387" s="8" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="1" customFormat="1">
       <c r="A388" s="8" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" spans="1:2" s="1" customFormat="1">
       <c r="A389" s="8" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
     </row>
     <row r="390" spans="1:2" s="1" customFormat="1">
       <c r="A390" s="8" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="1" customFormat="1">
       <c r="A391" s="8" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
     </row>
     <row r="392" spans="1:2" s="1" customFormat="1">
       <c r="A392" s="8" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="1" customFormat="1">
       <c r="A393" s="8" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="1" customFormat="1">
       <c r="A394" s="8" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
     </row>
     <row r="395" spans="1:2" s="1" customFormat="1">
       <c r="A395" s="8" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
     </row>
     <row r="396" spans="1:2" s="1" customFormat="1">
       <c r="A396" s="8" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
     </row>
     <row r="397" spans="1:2" s="1" customFormat="1">
       <c r="A397" s="8" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
     </row>
     <row r="398" spans="1:2" s="1" customFormat="1">
       <c r="A398" s="8" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
     </row>
     <row r="399" spans="1:2" s="1" customFormat="1">
       <c r="A399" s="8" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
     </row>
     <row r="400" spans="1:2" s="1" customFormat="1">
       <c r="A400" s="8" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="1" customFormat="1">
       <c r="A401" s="8" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="1" customFormat="1">
       <c r="A402" s="8" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>762</v>
+        <v>733</v>
       </c>
     </row>
     <row r="403" spans="1:2" s="1" customFormat="1">
       <c r="A403" s="8" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="404" spans="1:2" s="1" customFormat="1">
       <c r="A404" s="8" t="s">
-        <v>764</v>
+        <v>735</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>765</v>
+        <v>736</v>
       </c>
     </row>
     <row r="405" spans="1:2" s="1" customFormat="1">
       <c r="A405" s="8" t="s">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>767</v>
+        <v>738</v>
       </c>
     </row>
     <row r="406" spans="1:2" s="1" customFormat="1">
       <c r="A406" s="8" t="s">
-        <v>768</v>
+        <v>739</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>769</v>
+        <v>740</v>
       </c>
     </row>
     <row r="407" spans="1:2" s="1" customFormat="1">
       <c r="A407" s="8" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>771</v>
+        <v>742</v>
       </c>
     </row>
     <row r="408" spans="1:2" s="1" customFormat="1">
       <c r="A408" s="8" t="s">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
     </row>
     <row r="409" spans="1:2" s="1" customFormat="1">
       <c r="A409" s="8" t="s">
-        <v>774</v>
+        <v>745</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>775</v>
+        <v>746</v>
       </c>
     </row>
     <row r="410" spans="1:2" s="1" customFormat="1">
       <c r="A410" s="8" t="s">
-        <v>776</v>
+        <v>747</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>777</v>
+        <v>748</v>
       </c>
     </row>
     <row r="411" spans="1:2" s="1" customFormat="1">
       <c r="A411" s="8" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="1" customFormat="1">
       <c r="A412" s="8" t="s">
-        <v>780</v>
+        <v>751</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
     </row>
     <row r="413" spans="1:2" s="1" customFormat="1">
       <c r="A413" s="8" t="s">
-        <v>782</v>
+        <v>753</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>783</v>
+        <v>754</v>
       </c>
     </row>
     <row r="414" spans="1:2" s="1" customFormat="1">
       <c r="A414" s="8" t="s">
-        <v>784</v>
+        <v>755</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>785</v>
+        <v>756</v>
       </c>
     </row>
     <row r="415" spans="1:2" s="1" customFormat="1">
       <c r="A415" s="8" t="s">
-        <v>786</v>
+        <v>757</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="1" customFormat="1">
       <c r="A416" s="8" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>789</v>
+        <v>760</v>
       </c>
     </row>
     <row r="417" spans="1:5" s="1" customFormat="1">
       <c r="A417" s="8" t="s">
-        <v>790</v>
+        <v>761</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
     </row>
     <row r="418" spans="1:5" s="1" customFormat="1">
       <c r="A418" s="8" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
     </row>
     <row r="419" spans="1:5" s="1" customFormat="1">
       <c r="A419" s="8" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15">
       <c r="A422" s="3" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -6739,146 +6986,146 @@
     </row>
     <row r="423" spans="1:5" s="1" customFormat="1">
       <c r="A423" s="8" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
     </row>
     <row r="424" spans="1:5" s="1" customFormat="1">
       <c r="A424" s="8" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="425" spans="1:5" s="1" customFormat="1">
       <c r="A425" s="8" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
     </row>
     <row r="426" spans="1:5" s="1" customFormat="1">
       <c r="A426" s="8" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
     </row>
     <row r="427" spans="1:5" s="1" customFormat="1">
       <c r="A427" s="8" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
     </row>
     <row r="428" spans="1:5" s="1" customFormat="1">
       <c r="A428" s="8" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
     </row>
     <row r="429" spans="1:5" s="1" customFormat="1">
       <c r="A429" s="8" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>811</v>
+        <v>782</v>
       </c>
     </row>
     <row r="430" spans="1:5" s="1" customFormat="1">
       <c r="A430" s="8" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>813</v>
+        <v>784</v>
       </c>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1">
       <c r="A431" s="8" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>815</v>
+        <v>786</v>
       </c>
     </row>
     <row r="432" spans="1:5" s="1" customFormat="1">
       <c r="A432" s="8" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
     </row>
     <row r="433" spans="1:5" s="1" customFormat="1">
       <c r="A433" s="8" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
     </row>
     <row r="434" spans="1:5" s="1" customFormat="1">
       <c r="A434" s="8" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
     </row>
     <row r="435" spans="1:5" s="1" customFormat="1">
       <c r="A435" s="8" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
     </row>
     <row r="436" spans="1:5" s="1" customFormat="1">
       <c r="A436" s="8" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>825</v>
+        <v>796</v>
       </c>
     </row>
     <row r="437" spans="1:5" s="1" customFormat="1">
       <c r="A437" s="8" t="s">
-        <v>826</v>
+        <v>797</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
     </row>
     <row r="438" spans="1:5" s="1" customFormat="1">
       <c r="A438" s="8" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
     </row>
     <row r="439" spans="1:5" s="1" customFormat="1">
       <c r="A439" s="8" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15">
       <c r="A442" s="3" t="s">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -6886,50 +7133,50 @@
     </row>
     <row r="443" spans="1:5" s="1" customFormat="1">
       <c r="A443" s="8" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>835</v>
+        <v>806</v>
       </c>
     </row>
     <row r="444" spans="1:5" s="1" customFormat="1">
       <c r="A444" s="8" t="s">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
     </row>
     <row r="445" spans="1:5" s="1" customFormat="1">
       <c r="A445" s="8" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
     </row>
     <row r="446" spans="1:5" s="1" customFormat="1">
       <c r="A446" s="8" t="s">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>841</v>
+        <v>812</v>
       </c>
     </row>
     <row r="447" spans="1:5" s="1" customFormat="1">
       <c r="A447" s="8" t="s">
-        <v>842</v>
+        <v>813</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>843</v>
+        <v>814</v>
       </c>
     </row>
     <row r="448" spans="1:5" s="1" customFormat="1">
       <c r="A448" s="8" t="s">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/����������.xlsx
+++ b/����������.xlsx
@@ -15,8 +15,178 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>微软用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>蓝色背景：有疑问，待补充
+黄色背景：发现的错误</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[]: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示当前只在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>windows xp 32</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一种系统下测试的结果，其他系统不太清楚</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[]: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示当前只在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>windows xp 32</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一种系统下测试的结果，其他系统不太清楚</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F310" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[]: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示当前只在</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>windows xp 32</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一种系统下测试的结果，其他系统不太清楚</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="881">
   <si>
     <t>命令名称</t>
   </si>
@@ -31,9 +201,6 @@
   </si>
   <si>
     <t>完成状况</t>
-  </si>
-  <si>
-    <t>附录</t>
   </si>
   <si>
     <t>d.*</t>
@@ -918,9 +1085,6 @@
     <t>r.proj</t>
   </si>
   <si>
-    <t>Re-projects a raster map from given location to the current location.</t>
-  </si>
-  <si>
     <t>r.quant</t>
   </si>
   <si>
@@ -1758,9 +1922,6 @@
     <t>v.build</t>
   </si>
   <si>
-    <t>Creates topology for vector map.</t>
-  </si>
-  <si>
     <t>v.build.polylines</t>
   </si>
   <si>
@@ -2024,9 +2185,6 @@
     <t>v.in.region</t>
   </si>
   <si>
-    <t>Create a new vector from the current region.</t>
-  </si>
-  <si>
     <t>v.in.sites.all</t>
   </si>
   <si>
@@ -2304,9 +2462,6 @@
   </si>
   <si>
     <t>v.proj</t>
-  </si>
-  <si>
-    <t>Re-projects a vector map from one location to the current location.</t>
   </si>
   <si>
     <t>v.qcount</t>
@@ -2647,9 +2802,6 @@
   </si>
   <si>
     <t>m.proj</t>
-  </si>
-  <si>
-    <t>Converts coordinates from one projection to another (cs2cs frontend).</t>
   </si>
   <si>
     <t>m.transform</t>
@@ -2975,19 +3127,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Prints and manipulates GRASS projection information files (in various co-ordinate system descriptions).
-答应和管理GRASS投影信息文件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Converts all older versions of GRASS vector maps in current mapset to current format.
 将当前地图集中的所有老版本的GRASS矢量地图转换为当前格式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(</t>
-    </r>
+    <t>Searches for GRASS support files.
+查找GRASS支持的文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imports older versions of GRASS vector maps.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3005,7 +3162,143 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t>windows</t>
+      <t>[wendows xp 32]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时会出现内存地址错误</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>[windows xp 32]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下有问题，不知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怎样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>[windows xp 32]</t>
     </r>
     <r>
       <rPr>
@@ -3045,16 +3338,319 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Searches for GRASS support files.
-查找GRASS支持的文件</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(</t>
-    </r>
+    <t>Prints and manipulates GRASS projection information files (in various co-ordinate system descriptions).
+打印和管理GRASS投影信息文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-projects a raster map from given location to the current location.
+将其他location的栅格地图导入到当前location中。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是很有用的一条命令，他能在不改变当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的情况下查看其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中包含的栅格数据及它中任意幅栅格数据在当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的地理位置</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-projects a vector map from one location to the current location.
+同r.proj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Converts coordinates from one projection to another (cs2cs frontend).
+从一个投影到另一个投影坐标系的转换(cs2cs 前端)。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">m.proj </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>proj4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供的命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>cs2cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前端应用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>cs2cs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要是将列出的坐标对进行重投影</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a new vector from the current region.
+从当前区域产生一个新的矢量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当将一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的栅格地图集拷贝到另一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候很有用，可参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>grass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Starting with grass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一章的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Projection of raster and vector maps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">一节
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates topology for vector map.
+对矢量地图创建拓扑结构</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3063,7 +3659,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在</t>
+      <t>拓扑关系</t>
     </r>
     <r>
       <rPr>
@@ -3072,49 +3668,8 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t>windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下有问题，不知道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>怎样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Imports older versions of GRASS vector maps.</t>
+      <t>(topology) ?</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3122,7 +3677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3198,8 +3753,51 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3218,6 +3816,18 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF433CD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3233,7 +3843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3252,7 +3862,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3262,9 +3871,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3338,6 +3954,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF433CD4"/>
+    </mruColors>
   </colors>
 </styleSheet>
 </file>
@@ -3629,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="C293" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3639,10 +4258,10 @@
     <col min="2" max="2" width="126.375" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="88.625" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3658,16 +4277,16 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="16" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3675,307 +4294,307 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>840</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>841</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>839</v>
+        <v>832</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>830</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>827</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>826</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>843</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="40.5">
       <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>831</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>832</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>844</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>820</v>
+        <v>813</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
       <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>825</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="28.5">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>847</v>
+        <v>840</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1">
       <c r="A23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>851</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>852</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>833</v>
+        <v>39</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1">
       <c r="A33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="1" customFormat="1">
       <c r="A34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="1" customFormat="1">
       <c r="A35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A36" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1">
       <c r="A37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1">
       <c r="A38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3983,221 +4602,224 @@
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>854</v>
+        <v>54</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>836</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A46" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>856</v>
+        <v>58</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1">
+      <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="1" customFormat="1">
-      <c r="A49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A50" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A51" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="10" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A54" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A55" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1">
+      <c r="A57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1">
+      <c r="A58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="59" spans="1:6" s="1" customFormat="1">
+      <c r="A59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A52" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A53" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A55" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A56" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="1" customFormat="1">
-      <c r="A57" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="1" customFormat="1">
-      <c r="A58" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="1" customFormat="1">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:6" s="1" customFormat="1">
+      <c r="A60" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="1" customFormat="1">
-      <c r="A60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="6" t="s">
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1">
+      <c r="A61" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" s="1" customFormat="1">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="6" t="s">
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1">
+      <c r="A62" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" s="1" customFormat="1">
-      <c r="A62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A63" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" ht="27">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="9" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1">
+      <c r="A64" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="1" customFormat="1">
-      <c r="A64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A65" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>866</v>
+        <v>83</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A66" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>867</v>
+        <v>84</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1">
       <c r="A67" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="27">
       <c r="A68" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>869</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4210,10 +4832,10 @@
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4221,1277 +4843,1280 @@
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1">
       <c r="A72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27">
       <c r="A82" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B160" s="6" t="s">
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="8" t="s">
+      <c r="B161" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B161" s="6" t="s">
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="8" t="s">
+      <c r="B162" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B162" s="6" t="s">
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="8" t="s">
+      <c r="B163" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B163" s="6" t="s">
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="8" t="s">
+      <c r="B164" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B164" s="6" t="s">
+    </row>
+    <row r="165" spans="1:6" ht="42.75">
+      <c r="A165" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="8" t="s">
+      <c r="B165" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="8" t="s">
+    <row r="167" spans="1:6">
+      <c r="A167" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="8" t="s">
+    <row r="168" spans="1:6">
+      <c r="A168" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="8" t="s">
+    <row r="169" spans="1:6">
+      <c r="A169" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="8" t="s">
+    <row r="170" spans="1:6">
+      <c r="A170" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="8" t="s">
+    <row r="171" spans="1:6">
+      <c r="A171" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="8" t="s">
+    <row r="172" spans="1:6">
+      <c r="A172" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="8" t="s">
+    <row r="173" spans="1:6">
+      <c r="A173" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="8" t="s">
+    <row r="174" spans="1:6">
+      <c r="A174" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="8" t="s">
+    <row r="175" spans="1:6">
+      <c r="A175" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="8" t="s">
+    <row r="176" spans="1:6">
+      <c r="A176" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="27">
       <c r="A187" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F198" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="1" customFormat="1">
       <c r="A229" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15">
       <c r="A232" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -5499,162 +6124,162 @@
     </row>
     <row r="233" spans="1:5" s="1" customFormat="1">
       <c r="A233" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="1" customFormat="1">
       <c r="A234" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="1" customFormat="1">
       <c r="A235" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="1" customFormat="1">
       <c r="A236" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="1" customFormat="1">
       <c r="A237" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="1" customFormat="1">
       <c r="A238" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="1" customFormat="1">
       <c r="A239" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="1" customFormat="1">
       <c r="A240" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="1" customFormat="1">
       <c r="A241" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="1" customFormat="1">
       <c r="A242" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="1" customFormat="1">
       <c r="A243" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="1" customFormat="1">
       <c r="A244" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="1" customFormat="1">
       <c r="A245" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="1" customFormat="1">
       <c r="A246" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="1" customFormat="1">
       <c r="A247" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="1" customFormat="1">
       <c r="A248" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="1" customFormat="1">
       <c r="A249" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="1" customFormat="1">
       <c r="A250" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="1" customFormat="1">
       <c r="A251" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15">
       <c r="A254" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5662,1323 +6287,1329 @@
     </row>
     <row r="255" spans="1:5" s="1" customFormat="1">
       <c r="A255" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="1" customFormat="1">
       <c r="A256" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1">
       <c r="A257" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1">
       <c r="A258" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1">
       <c r="A259" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1">
       <c r="A260" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1">
       <c r="A261" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1">
       <c r="A262" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1">
       <c r="A263" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1">
       <c r="A264" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1">
       <c r="A265" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1">
       <c r="A266" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1">
       <c r="A267" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1">
       <c r="A268" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1">
       <c r="A269" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1">
       <c r="A270" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1">
       <c r="A271" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1">
       <c r="A272" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1">
       <c r="A273" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1">
       <c r="A274" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1">
       <c r="A275" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1">
       <c r="A276" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1">
       <c r="A277" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1">
       <c r="A278" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1">
       <c r="A279" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1">
       <c r="A280" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1">
       <c r="A281" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1">
       <c r="A282" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1">
       <c r="A283" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284" spans="1:2" s="1" customFormat="1">
       <c r="A284" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1">
       <c r="A285" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1">
       <c r="A286" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1">
       <c r="A287" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1">
       <c r="A288" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="1" customFormat="1">
+      <c r="A289" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B289" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="1" customFormat="1">
-      <c r="A289" s="8" t="s">
+    <row r="290" spans="1:6" s="1" customFormat="1">
+      <c r="A290" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B290" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="1" customFormat="1">
-      <c r="A290" s="8" t="s">
+    <row r="291" spans="1:6" s="1" customFormat="1">
+      <c r="A291" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B291" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="291" spans="1:5" s="1" customFormat="1">
-      <c r="A291" s="8" t="s">
+    <row r="292" spans="1:6" s="1" customFormat="1">
+      <c r="A292" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B292" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="1" customFormat="1">
-      <c r="A292" s="8" t="s">
+    <row r="293" spans="1:6" s="1" customFormat="1">
+      <c r="A293" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B293" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="1" customFormat="1">
-      <c r="A293" s="8" t="s">
+    <row r="294" spans="1:6" s="1" customFormat="1">
+      <c r="A294" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B294" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="1" customFormat="1">
-      <c r="A294" s="8" t="s">
+    <row r="295" spans="1:6" s="1" customFormat="1">
+      <c r="A295" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B295" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="1" customFormat="1">
-      <c r="A295" s="8" t="s">
+    <row r="296" spans="1:6" s="1" customFormat="1">
+      <c r="A296" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B296" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="1" customFormat="1">
-      <c r="A296" s="8" t="s">
+    <row r="299" spans="1:6" ht="15">
+      <c r="A299" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B299" s="4" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="15">
-      <c r="A299" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="1:5" s="1" customFormat="1">
+    <row r="300" spans="1:6" s="1" customFormat="1">
       <c r="A300" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="1" customFormat="1">
+      <c r="A301" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B301" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="B300" s="6" t="s">
+    </row>
+    <row r="302" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A302" s="8" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" s="1" customFormat="1">
-      <c r="A301" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="B301" s="13" t="s">
+      <c r="B302" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="1" customFormat="1">
+      <c r="A303" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" s="1" customFormat="1">
-      <c r="A302" s="8" t="s">
+      <c r="B303" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B302" s="6" t="s">
+    </row>
+    <row r="304" spans="1:6" s="1" customFormat="1">
+      <c r="A304" s="8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" s="1" customFormat="1">
-      <c r="A303" s="8" t="s">
+      <c r="B304" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" s="1" customFormat="1">
-      <c r="A304" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="1" customFormat="1">
       <c r="A305" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="1" customFormat="1">
       <c r="A306" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="1" customFormat="1">
       <c r="A307" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="1" customFormat="1">
       <c r="A308" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="1" customFormat="1">
       <c r="A309" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="1" customFormat="1" ht="27">
       <c r="A310" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="F310" s="10" t="s">
-        <v>872</v>
+        <v>546</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="F310" s="13" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="1" customFormat="1">
       <c r="A311" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="1" customFormat="1">
       <c r="A312" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="1" customFormat="1">
       <c r="A313" s="8" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="1" customFormat="1">
       <c r="A314" s="8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="1" customFormat="1">
       <c r="A315" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="1" customFormat="1">
       <c r="A316" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="1" customFormat="1">
       <c r="A317" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="1" customFormat="1">
       <c r="A318" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="1" customFormat="1">
       <c r="A319" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="1" customFormat="1">
       <c r="A320" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="1" customFormat="1">
       <c r="A321" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="1" customFormat="1">
       <c r="A322" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="1" customFormat="1">
       <c r="A323" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="1" customFormat="1">
       <c r="A324" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="1" customFormat="1">
       <c r="A325" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="1" customFormat="1">
       <c r="A326" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="1" customFormat="1">
       <c r="A327" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="1" customFormat="1">
       <c r="A328" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="1" customFormat="1">
       <c r="A329" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="1" customFormat="1">
       <c r="A330" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="1" customFormat="1">
       <c r="A331" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="1" customFormat="1">
       <c r="A332" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="1" customFormat="1">
       <c r="A333" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="1" customFormat="1">
       <c r="A334" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="335" spans="1:6" s="1" customFormat="1">
       <c r="A335" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="1" customFormat="1">
       <c r="A336" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="1" customFormat="1">
+      <c r="A337" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B336" s="6" t="s">
+    </row>
+    <row r="338" spans="1:6" s="1" customFormat="1">
+      <c r="A338" s="8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" s="1" customFormat="1">
-      <c r="A337" s="8" t="s">
+      <c r="B338" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B337" s="6" t="s">
+    </row>
+    <row r="339" spans="1:6" s="1" customFormat="1">
+      <c r="A339" s="8" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" s="1" customFormat="1">
-      <c r="A338" s="8" t="s">
+      <c r="B339" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B338" s="6" t="s">
+    </row>
+    <row r="340" spans="1:6" s="1" customFormat="1">
+      <c r="A340" s="8" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" s="1" customFormat="1">
-      <c r="A339" s="8" t="s">
+      <c r="B340" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B339" s="6" t="s">
+    </row>
+    <row r="341" spans="1:6" s="1" customFormat="1">
+      <c r="A341" s="8" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" s="1" customFormat="1">
-      <c r="A340" s="8" t="s">
+      <c r="B341" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B340" s="6" t="s">
+    </row>
+    <row r="342" spans="1:6" s="1" customFormat="1">
+      <c r="A342" s="8" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" s="1" customFormat="1">
-      <c r="A341" s="8" t="s">
+      <c r="B342" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B341" s="6" t="s">
+    </row>
+    <row r="343" spans="1:6" s="1" customFormat="1">
+      <c r="A343" s="8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" s="1" customFormat="1">
-      <c r="A342" s="8" t="s">
+      <c r="B343" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B342" s="6" t="s">
+    </row>
+    <row r="344" spans="1:6" s="1" customFormat="1">
+      <c r="A344" s="8" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" s="1" customFormat="1">
-      <c r="A343" s="8" t="s">
+      <c r="B344" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="B343" s="6" t="s">
+    </row>
+    <row r="345" spans="1:6" s="1" customFormat="1" ht="71.25">
+      <c r="A345" s="8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" s="1" customFormat="1">
-      <c r="A344" s="8" t="s">
+      <c r="B345" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="F345" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="1" customFormat="1">
+      <c r="A346" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="B344" s="6" t="s">
+      <c r="B346" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="345" spans="1:2" s="1" customFormat="1">
-      <c r="A345" s="8" t="s">
+    <row r="347" spans="1:6" s="1" customFormat="1">
+      <c r="A347" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B347" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="346" spans="1:2" s="1" customFormat="1">
-      <c r="A346" s="8" t="s">
+    <row r="348" spans="1:6" s="1" customFormat="1">
+      <c r="A348" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B348" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="347" spans="1:2" s="1" customFormat="1">
-      <c r="A347" s="8" t="s">
+    <row r="349" spans="1:6" s="1" customFormat="1">
+      <c r="A349" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B349" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="348" spans="1:2" s="1" customFormat="1">
-      <c r="A348" s="8" t="s">
+    <row r="350" spans="1:6" s="1" customFormat="1">
+      <c r="A350" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="B350" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="349" spans="1:2" s="1" customFormat="1">
-      <c r="A349" s="8" t="s">
+    <row r="351" spans="1:6" s="1" customFormat="1">
+      <c r="A351" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B351" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="350" spans="1:2" s="1" customFormat="1">
-      <c r="A350" s="8" t="s">
+    <row r="352" spans="1:6" s="1" customFormat="1">
+      <c r="A352" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B352" s="6" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" s="1" customFormat="1">
-      <c r="A351" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" s="1" customFormat="1">
-      <c r="A352" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="353" spans="1:2" s="1" customFormat="1">
       <c r="A353" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="354" spans="1:2" s="1" customFormat="1">
       <c r="A354" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="355" spans="1:2" s="1" customFormat="1">
       <c r="A355" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="356" spans="1:2" s="1" customFormat="1">
       <c r="A356" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="357" spans="1:2" s="1" customFormat="1">
       <c r="A357" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="358" spans="1:2" s="1" customFormat="1">
       <c r="A358" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="359" spans="1:2" s="1" customFormat="1">
       <c r="A359" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="360" spans="1:2" s="1" customFormat="1">
       <c r="A360" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="361" spans="1:2" s="1" customFormat="1">
       <c r="A361" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="362" spans="1:2" s="1" customFormat="1">
       <c r="A362" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:2" s="1" customFormat="1">
       <c r="A363" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="364" spans="1:2" s="1" customFormat="1">
       <c r="A364" s="8" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="365" spans="1:2" s="1" customFormat="1">
       <c r="A365" s="8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="366" spans="1:2" s="1" customFormat="1">
       <c r="A366" s="8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="367" spans="1:2" s="1" customFormat="1">
       <c r="A367" s="8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="368" spans="1:2" s="1" customFormat="1">
       <c r="A368" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="369" spans="1:2" s="1" customFormat="1">
       <c r="A369" s="8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="370" spans="1:2" s="1" customFormat="1">
       <c r="A370" s="8" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="371" spans="1:2" s="1" customFormat="1">
       <c r="A371" s="8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="372" spans="1:2" s="1" customFormat="1">
       <c r="A372" s="8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="373" spans="1:2" s="1" customFormat="1">
       <c r="A373" s="8" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="374" spans="1:2" s="1" customFormat="1">
       <c r="A374" s="8" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="375" spans="1:2" s="1" customFormat="1">
       <c r="A375" s="8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="1" customFormat="1">
       <c r="A376" s="8" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="377" spans="1:2" s="1" customFormat="1">
       <c r="A377" s="8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="378" spans="1:2" s="1" customFormat="1">
       <c r="A378" s="8" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="379" spans="1:2" s="1" customFormat="1">
       <c r="A379" s="8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="380" spans="1:2" s="1" customFormat="1">
       <c r="A380" s="8" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="381" spans="1:2" s="1" customFormat="1">
       <c r="A381" s="8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="382" spans="1:2" s="1" customFormat="1">
       <c r="A382" s="8" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="383" spans="1:2" s="1" customFormat="1">
       <c r="A383" s="8" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="384" spans="1:2" s="1" customFormat="1">
       <c r="A384" s="8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="385" spans="1:2" s="1" customFormat="1">
       <c r="A385" s="8" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="1" customFormat="1">
       <c r="A386" s="8" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="1" customFormat="1">
       <c r="A387" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="388" spans="1:2" s="1" customFormat="1">
       <c r="A388" s="8" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="389" spans="1:2" s="1" customFormat="1">
       <c r="A389" s="8" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="390" spans="1:2" s="1" customFormat="1">
       <c r="A390" s="8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="391" spans="1:2" s="1" customFormat="1">
       <c r="A391" s="8" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" s="1" customFormat="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" s="1" customFormat="1" ht="27">
       <c r="A392" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>713</v>
+        <v>708</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="393" spans="1:2" s="1" customFormat="1">
       <c r="A393" s="8" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="394" spans="1:2" s="1" customFormat="1">
       <c r="A394" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="395" spans="1:2" s="1" customFormat="1">
       <c r="A395" s="8" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="396" spans="1:2" s="1" customFormat="1">
       <c r="A396" s="8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="397" spans="1:2" s="1" customFormat="1">
       <c r="A397" s="8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="398" spans="1:2" s="1" customFormat="1">
       <c r="A398" s="8" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="399" spans="1:2" s="1" customFormat="1">
       <c r="A399" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="400" spans="1:2" s="1" customFormat="1">
       <c r="A400" s="8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="1" customFormat="1">
       <c r="A401" s="8" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="1" customFormat="1">
       <c r="A402" s="8" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="403" spans="1:2" s="1" customFormat="1">
       <c r="A403" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="404" spans="1:2" s="1" customFormat="1">
       <c r="A404" s="8" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="405" spans="1:2" s="1" customFormat="1">
       <c r="A405" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="406" spans="1:2" s="1" customFormat="1">
       <c r="A406" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="407" spans="1:2" s="1" customFormat="1">
       <c r="A407" s="8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="408" spans="1:2" s="1" customFormat="1">
       <c r="A408" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="409" spans="1:2" s="1" customFormat="1">
       <c r="A409" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="410" spans="1:2" s="1" customFormat="1">
       <c r="A410" s="8" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="411" spans="1:2" s="1" customFormat="1">
       <c r="A411" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="412" spans="1:2" s="1" customFormat="1">
       <c r="A412" s="8" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="413" spans="1:2" s="1" customFormat="1">
       <c r="A413" s="8" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="414" spans="1:2" s="1" customFormat="1">
       <c r="A414" s="8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="415" spans="1:2" s="1" customFormat="1">
       <c r="A415" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="416" spans="1:2" s="1" customFormat="1">
       <c r="A416" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="417" spans="1:5" s="1" customFormat="1">
       <c r="A417" s="8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="418" spans="1:5" s="1" customFormat="1">
       <c r="A418" s="8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="419" spans="1:5" s="1" customFormat="1">
       <c r="A419" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15">
       <c r="A422" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -6986,202 +7617,206 @@
     </row>
     <row r="423" spans="1:5" s="1" customFormat="1">
       <c r="A423" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="424" spans="1:5" s="1" customFormat="1">
       <c r="A424" s="8" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="425" spans="1:5" s="1" customFormat="1">
       <c r="A425" s="8" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="426" spans="1:5" s="1" customFormat="1">
       <c r="A426" s="8" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="427" spans="1:5" s="1" customFormat="1">
       <c r="A427" s="8" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="428" spans="1:5" s="1" customFormat="1">
       <c r="A428" s="8" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="429" spans="1:5" s="1" customFormat="1">
       <c r="A429" s="8" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="430" spans="1:5" s="1" customFormat="1">
       <c r="A430" s="8" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1">
       <c r="A431" s="8" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="432" spans="1:5" s="1" customFormat="1">
       <c r="A432" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" s="1" customFormat="1">
+      <c r="A433" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" s="1" customFormat="1">
+      <c r="A434" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B434" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B432" s="6" t="s">
+    </row>
+    <row r="435" spans="1:6" s="1" customFormat="1">
+      <c r="A435" s="8" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" s="1" customFormat="1">
-      <c r="A433" s="8" t="s">
+      <c r="B435" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B433" s="6" t="s">
+    </row>
+    <row r="436" spans="1:6" s="1" customFormat="1">
+      <c r="A436" s="8" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" s="1" customFormat="1">
-      <c r="A434" s="8" t="s">
+      <c r="B436" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B434" s="6" t="s">
+    </row>
+    <row r="437" spans="1:6" s="1" customFormat="1">
+      <c r="A437" s="8" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" s="1" customFormat="1">
-      <c r="A435" s="8" t="s">
+      <c r="B437" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B435" s="6" t="s">
+    </row>
+    <row r="438" spans="1:6" s="1" customFormat="1">
+      <c r="A438" s="8" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" s="1" customFormat="1">
-      <c r="A436" s="8" t="s">
+      <c r="B438" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B436" s="6" t="s">
+    </row>
+    <row r="439" spans="1:6" s="1" customFormat="1">
+      <c r="A439" s="8" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" s="1" customFormat="1">
-      <c r="A437" s="8" t="s">
+      <c r="B439" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="B437" s="6" t="s">
+    </row>
+    <row r="442" spans="1:6" ht="15">
+      <c r="A442" s="3" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" s="1" customFormat="1">
-      <c r="A438" s="8" t="s">
+      <c r="B442" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="B438" s="6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" s="1" customFormat="1">
-      <c r="A439" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="15">
-      <c r="A442" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="1:5" s="1" customFormat="1">
+    <row r="443" spans="1:6" s="1" customFormat="1">
       <c r="A443" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" s="1" customFormat="1">
+      <c r="A444" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" s="1" customFormat="1">
+      <c r="A445" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B445" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B443" s="6" t="s">
+    </row>
+    <row r="446" spans="1:6" s="1" customFormat="1">
+      <c r="A446" s="8" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" s="1" customFormat="1">
-      <c r="A444" s="8" t="s">
+      <c r="B446" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B444" s="6" t="s">
+    </row>
+    <row r="447" spans="1:6" s="1" customFormat="1" ht="27">
+      <c r="A447" s="8" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" s="1" customFormat="1">
-      <c r="A445" s="8" t="s">
+      <c r="B447" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" s="1" customFormat="1">
+      <c r="A448" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="B445" s="6" t="s">
+      <c r="B448" s="6" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" s="1" customFormat="1">
-      <c r="A446" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="B446" s="6" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" s="1" customFormat="1">
-      <c r="A447" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" s="1" customFormat="1">
-      <c r="A448" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/����������.xlsx
+++ b/����������.xlsx
@@ -9201,8 +9201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/����������.xlsx
+++ b/����������.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1011">
   <si>
     <t>命令名称</t>
   </si>
@@ -8501,6 +8501,104 @@
   </si>
   <si>
     <t>Computes a coordinate transformation based on the control points.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> --wps-process-description" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以得到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>WPS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>DescribeProcess</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求的描述</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8735,7 +8833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -8833,6 +8931,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9199,10 +9300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G448"/>
+  <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14413,6 +14514,11 @@
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
       <c r="G448" s="10"/>
+    </row>
+    <row r="450" spans="1:1" ht="30">
+      <c r="A450" s="36" t="s">
+        <v>1010</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
